--- a/_data/ICPUSDT_4h.xlsx
+++ b/_data/ICPUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,746 @@
         <v>55978.84</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>7.752</v>
+      </c>
+      <c r="C1085">
+        <v>7.86</v>
+      </c>
+      <c r="D1085">
+        <v>7.383</v>
+      </c>
+      <c r="E1085">
+        <v>7.415</v>
+      </c>
+      <c r="F1085">
+        <v>531080.21</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>7.419</v>
+      </c>
+      <c r="C1086">
+        <v>7.62</v>
+      </c>
+      <c r="D1086">
+        <v>7.336</v>
+      </c>
+      <c r="E1086">
+        <v>7.537</v>
+      </c>
+      <c r="F1086">
+        <v>353036.67</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>7.533</v>
+      </c>
+      <c r="C1087">
+        <v>7.656</v>
+      </c>
+      <c r="D1087">
+        <v>7.52</v>
+      </c>
+      <c r="E1087">
+        <v>7.617</v>
+      </c>
+      <c r="F1087">
+        <v>112784.17</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>7.618</v>
+      </c>
+      <c r="C1088">
+        <v>7.679</v>
+      </c>
+      <c r="D1088">
+        <v>7.595</v>
+      </c>
+      <c r="E1088">
+        <v>7.654</v>
+      </c>
+      <c r="F1088">
+        <v>174660.9</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>7.654</v>
+      </c>
+      <c r="C1089">
+        <v>7.722</v>
+      </c>
+      <c r="D1089">
+        <v>7.611</v>
+      </c>
+      <c r="E1089">
+        <v>7.618</v>
+      </c>
+      <c r="F1089">
+        <v>115550.65</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>7.618</v>
+      </c>
+      <c r="C1090">
+        <v>7.631</v>
+      </c>
+      <c r="D1090">
+        <v>7.519</v>
+      </c>
+      <c r="E1090">
+        <v>7.523</v>
+      </c>
+      <c r="F1090">
+        <v>87657.78</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>7.54</v>
+      </c>
+      <c r="C1091">
+        <v>7.558</v>
+      </c>
+      <c r="D1091">
+        <v>7.457</v>
+      </c>
+      <c r="E1091">
+        <v>7.537</v>
+      </c>
+      <c r="F1091">
+        <v>99763.42999999999</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>7.537</v>
+      </c>
+      <c r="C1092">
+        <v>7.562</v>
+      </c>
+      <c r="D1092">
+        <v>7.435</v>
+      </c>
+      <c r="E1092">
+        <v>7.5</v>
+      </c>
+      <c r="F1092">
+        <v>88925.3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>7.501</v>
+      </c>
+      <c r="C1093">
+        <v>7.53</v>
+      </c>
+      <c r="D1093">
+        <v>7.487</v>
+      </c>
+      <c r="E1093">
+        <v>7.525</v>
+      </c>
+      <c r="F1093">
+        <v>17300.59</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>7.56</v>
+      </c>
+      <c r="C1094">
+        <v>7.583</v>
+      </c>
+      <c r="D1094">
+        <v>7.41</v>
+      </c>
+      <c r="E1094">
+        <v>7.481</v>
+      </c>
+      <c r="F1094">
+        <v>85597.41</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>7.482</v>
+      </c>
+      <c r="C1095">
+        <v>7.497</v>
+      </c>
+      <c r="D1095">
+        <v>7.351</v>
+      </c>
+      <c r="E1095">
+        <v>7.436</v>
+      </c>
+      <c r="F1095">
+        <v>119813.92</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>7.437</v>
+      </c>
+      <c r="C1096">
+        <v>7.449</v>
+      </c>
+      <c r="D1096">
+        <v>7.352</v>
+      </c>
+      <c r="E1096">
+        <v>7.354</v>
+      </c>
+      <c r="F1096">
+        <v>41074.14</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>7.359</v>
+      </c>
+      <c r="C1097">
+        <v>7.436</v>
+      </c>
+      <c r="D1097">
+        <v>7.189</v>
+      </c>
+      <c r="E1097">
+        <v>7.402</v>
+      </c>
+      <c r="F1097">
+        <v>163731.73</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>7.404</v>
+      </c>
+      <c r="C1098">
+        <v>7.451</v>
+      </c>
+      <c r="D1098">
+        <v>7.245</v>
+      </c>
+      <c r="E1098">
+        <v>7.43</v>
+      </c>
+      <c r="F1098">
+        <v>186237.45</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>7.425</v>
+      </c>
+      <c r="C1099">
+        <v>7.462</v>
+      </c>
+      <c r="D1099">
+        <v>7.087</v>
+      </c>
+      <c r="E1099">
+        <v>7.191</v>
+      </c>
+      <c r="F1099">
+        <v>207139.98</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>7.184</v>
+      </c>
+      <c r="C1100">
+        <v>7.241</v>
+      </c>
+      <c r="D1100">
+        <v>7.131</v>
+      </c>
+      <c r="E1100">
+        <v>7.224</v>
+      </c>
+      <c r="F1100">
+        <v>158287.26</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>7.225</v>
+      </c>
+      <c r="C1101">
+        <v>7.311</v>
+      </c>
+      <c r="D1101">
+        <v>7.115</v>
+      </c>
+      <c r="E1101">
+        <v>7.146</v>
+      </c>
+      <c r="F1101">
+        <v>157363.35</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>7.145</v>
+      </c>
+      <c r="C1102">
+        <v>7.427</v>
+      </c>
+      <c r="D1102">
+        <v>7.144</v>
+      </c>
+      <c r="E1102">
+        <v>7.36</v>
+      </c>
+      <c r="F1102">
+        <v>301114.78</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>7.363</v>
+      </c>
+      <c r="C1103">
+        <v>7.38</v>
+      </c>
+      <c r="D1103">
+        <v>7.309</v>
+      </c>
+      <c r="E1103">
+        <v>7.315</v>
+      </c>
+      <c r="F1103">
+        <v>23523.98</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>7.391</v>
+      </c>
+      <c r="C1104">
+        <v>7.435</v>
+      </c>
+      <c r="D1104">
+        <v>7.342</v>
+      </c>
+      <c r="E1104">
+        <v>7.387</v>
+      </c>
+      <c r="F1104">
+        <v>141472.7</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>7.393</v>
+      </c>
+      <c r="C1105">
+        <v>7.394</v>
+      </c>
+      <c r="D1105">
+        <v>7.351</v>
+      </c>
+      <c r="E1105">
+        <v>7.388</v>
+      </c>
+      <c r="F1105">
+        <v>18164.48</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>7.524</v>
+      </c>
+      <c r="C1106">
+        <v>7.645</v>
+      </c>
+      <c r="D1106">
+        <v>7.493</v>
+      </c>
+      <c r="E1106">
+        <v>7.534</v>
+      </c>
+      <c r="F1106">
+        <v>227185.78</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>7.533</v>
+      </c>
+      <c r="C1107">
+        <v>7.555</v>
+      </c>
+      <c r="D1107">
+        <v>7.469</v>
+      </c>
+      <c r="E1107">
+        <v>7.518</v>
+      </c>
+      <c r="F1107">
+        <v>122698.47</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>7.517</v>
+      </c>
+      <c r="C1108">
+        <v>7.543</v>
+      </c>
+      <c r="D1108">
+        <v>7.407</v>
+      </c>
+      <c r="E1108">
+        <v>7.475</v>
+      </c>
+      <c r="F1108">
+        <v>170621.45</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>7.47</v>
+      </c>
+      <c r="C1109">
+        <v>7.519</v>
+      </c>
+      <c r="D1109">
+        <v>7.149</v>
+      </c>
+      <c r="E1109">
+        <v>7.164</v>
+      </c>
+      <c r="F1109">
+        <v>331364.9</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>7.161</v>
+      </c>
+      <c r="C1110">
+        <v>7.269</v>
+      </c>
+      <c r="D1110">
+        <v>7.151</v>
+      </c>
+      <c r="E1110">
+        <v>7.252</v>
+      </c>
+      <c r="F1110">
+        <v>135147.86</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>7.249</v>
+      </c>
+      <c r="C1111">
+        <v>7.293</v>
+      </c>
+      <c r="D1111">
+        <v>7.144</v>
+      </c>
+      <c r="E1111">
+        <v>7.162</v>
+      </c>
+      <c r="F1111">
+        <v>69410.67</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>7.158</v>
+      </c>
+      <c r="C1112">
+        <v>7.22</v>
+      </c>
+      <c r="D1112">
+        <v>6.9</v>
+      </c>
+      <c r="E1112">
+        <v>7.191</v>
+      </c>
+      <c r="F1112">
+        <v>436059.18</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>7.191</v>
+      </c>
+      <c r="C1113">
+        <v>7.279</v>
+      </c>
+      <c r="D1113">
+        <v>7.16</v>
+      </c>
+      <c r="E1113">
+        <v>7.253</v>
+      </c>
+      <c r="F1113">
+        <v>234856.98</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>7.255</v>
+      </c>
+      <c r="C1114">
+        <v>7.31</v>
+      </c>
+      <c r="D1114">
+        <v>7.151</v>
+      </c>
+      <c r="E1114">
+        <v>7.217</v>
+      </c>
+      <c r="F1114">
+        <v>232717.75</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>7.216</v>
+      </c>
+      <c r="C1115">
+        <v>7.573</v>
+      </c>
+      <c r="D1115">
+        <v>7.171</v>
+      </c>
+      <c r="E1115">
+        <v>7.562</v>
+      </c>
+      <c r="F1115">
+        <v>491769.94</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>7.562</v>
+      </c>
+      <c r="C1116">
+        <v>7.76</v>
+      </c>
+      <c r="D1116">
+        <v>7.522</v>
+      </c>
+      <c r="E1116">
+        <v>7.539</v>
+      </c>
+      <c r="F1116">
+        <v>320665.43</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>7.555</v>
+      </c>
+      <c r="C1117">
+        <v>7.687</v>
+      </c>
+      <c r="D1117">
+        <v>7.549</v>
+      </c>
+      <c r="E1117">
+        <v>7.557</v>
+      </c>
+      <c r="F1117">
+        <v>163991.16</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>7.557</v>
+      </c>
+      <c r="C1118">
+        <v>7.645</v>
+      </c>
+      <c r="D1118">
+        <v>7.441</v>
+      </c>
+      <c r="E1118">
+        <v>7.466</v>
+      </c>
+      <c r="F1118">
+        <v>207046.71</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>7.466</v>
+      </c>
+      <c r="C1119">
+        <v>7.499</v>
+      </c>
+      <c r="D1119">
+        <v>7.362</v>
+      </c>
+      <c r="E1119">
+        <v>7.436</v>
+      </c>
+      <c r="F1119">
+        <v>393798.24</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>7.435</v>
+      </c>
+      <c r="C1120">
+        <v>7.464</v>
+      </c>
+      <c r="D1120">
+        <v>7.328</v>
+      </c>
+      <c r="E1120">
+        <v>7.333</v>
+      </c>
+      <c r="F1120">
+        <v>376957.76</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>7.333</v>
+      </c>
+      <c r="C1121">
+        <v>7.335</v>
+      </c>
+      <c r="D1121">
+        <v>7.33</v>
+      </c>
+      <c r="E1121">
+        <v>7.335</v>
+      </c>
+      <c r="F1121">
+        <v>972.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
